--- a/PRESENTACION02/TRABAJO FINAL/Agurpar Entidades Negocio PI.xlsx
+++ b/PRESENTACION02/TRABAJO FINAL/Agurpar Entidades Negocio PI.xlsx
@@ -262,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +272,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -301,6 +307,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -747,7 +754,7 @@
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -755,7 +762,7 @@
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -763,7 +770,7 @@
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -774,7 +781,7 @@
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="12" t="s">
         <v>15</v>
       </c>
     </row>
